--- a/work-interventions-time-HAR-01.xlsx
+++ b/work-interventions-time-HAR-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\src\work-time-model-psy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68C8C14-700C-4660-9CF7-029748A6A85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A9D2EB-FB1A-4B6A-B570-6E50AA89CF56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,6 @@
     <definedName name="weeklyOngoing">'Work-Time'!$I$19</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2778,7 +2777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="427">
   <si>
     <t>INTERVENTIONS</t>
   </si>
@@ -4177,6 +4176,12 @@
   </si>
   <si>
     <t>How many  therapists (persons) employed</t>
+  </si>
+  <si>
+    <t>Other work*</t>
+  </si>
+  <si>
+    <t>He does provide input to patient feedback collection</t>
   </si>
 </sst>
 </file>
@@ -6678,8 +6683,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P109" sqref="P109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -7630,6 +7635,7 @@
       </c>
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
       <c r="R16" s="41">
         <f>W16*grpCONS_Y</f>
         <v>0</v>
@@ -7879,6 +7885,7 @@
       </c>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
       <c r="R20" s="41">
         <f>W20*indMEDRV_E</f>
         <v>3.1875</v>
@@ -11581,7 +11588,7 @@
       <c r="Q87" s="72"/>
       <c r="R87" s="73">
         <f>SUM(R88:R109)</f>
-        <v>39.583333333333329</v>
+        <v>68.75</v>
       </c>
       <c r="S87" s="81">
         <f>availableHours*S86</f>
@@ -11593,7 +11600,7 @@
       <c r="U87" s="72"/>
       <c r="V87" s="73">
         <f>SUM(V88:V109)</f>
-        <v>39.583333333333329</v>
+        <v>68.75</v>
       </c>
       <c r="W87" s="81">
         <f>availableHours*W86</f>
@@ -12735,11 +12742,27 @@
       <c r="L106" s="79"/>
       <c r="N106" s="4"/>
       <c r="O106" s="76"/>
-      <c r="P106" s="79"/>
-      <c r="R106" s="4"/>
+      <c r="P106" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q106">
+        <v>700</v>
+      </c>
+      <c r="R106" s="4">
+        <f>60*1/1440*Q106</f>
+        <v>29.166666666666664</v>
+      </c>
       <c r="S106" s="76"/>
-      <c r="T106" s="79"/>
-      <c r="V106" s="4"/>
+      <c r="T106" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="U106">
+        <v>700</v>
+      </c>
+      <c r="V106" s="4">
+        <f>60*1/1440*U106</f>
+        <v>29.166666666666664</v>
+      </c>
       <c r="W106" s="76"/>
     </row>
     <row r="107" spans="1:23">
@@ -12924,7 +12947,7 @@
       <c r="I113" s="72"/>
       <c r="J113" s="73">
         <f>SUM(J114:J134)</f>
-        <v>39.583333333333329</v>
+        <v>68.75</v>
       </c>
       <c r="K113" s="74">
         <f>availableHours*K112</f>
@@ -14066,8 +14089,16 @@
         <v>12</v>
       </c>
       <c r="F132" s="8"/>
-      <c r="H132" s="79"/>
-      <c r="J132" s="4"/>
+      <c r="H132" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="I132">
+        <v>700</v>
+      </c>
+      <c r="J132" s="4">
+        <f>60*1/1440*I132</f>
+        <v>29.166666666666664</v>
+      </c>
       <c r="K132" s="76"/>
       <c r="L132" s="79"/>
       <c r="N132" s="4"/>
@@ -14098,7 +14129,9 @@
       </c>
       <c r="J133" s="4"/>
       <c r="K133" s="76"/>
-      <c r="L133" s="79"/>
+      <c r="L133" s="144" t="s">
+        <v>426</v>
+      </c>
       <c r="N133" s="4"/>
       <c r="O133" s="76"/>
       <c r="P133" s="79"/>
@@ -14615,7 +14648,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -15108,6 +15141,10 @@
       </c>
       <c r="E37" s="8">
         <v>0.6</v>
+      </c>
+      <c r="G37">
+        <f>0.6*1650</f>
+        <v>990</v>
       </c>
       <c r="M37">
         <f>52*4</f>
